--- a/Front Board/BOM-FB-Rev2j.xlsx
+++ b/Front Board/BOM-FB-Rev2j.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Front Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E4FCE-00C0-4C56-BBDE-37B433E93DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3879321D-5421-4F40-B0B6-304D29A3705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="810" windowWidth="19590" windowHeight="15570" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="1140" yWindow="2430" windowWidth="21600" windowHeight="9810" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="615">
   <si>
     <t>Quantity</t>
   </si>
@@ -1865,6 +1865,15 @@
   </si>
   <si>
     <t>Corrected size for C41</t>
+  </si>
+  <si>
+    <t>Cable harnesses:</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/1005002942389730.html?spm=a2g0o.productlist.main.9.8badZ4V9Z4V92a&amp;algo_pvid=94a6380a-288b-4c3a-acc3-61c2ba7c95ce&amp;algo_exp_id=94a6380a-288b-4c3a-acc3-61c2ba7c95ce-8&amp;pdp_ext_f=%7B%22order%22%3A%2241%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=6%40dis%21EUR%210.31%210.27%21%21%210.35%210.30%21%40211b80d117550731005353576e8de1%2112000022896959057%21sea%21NL%210%21ABX%211%210%21n_tag%3A-29910%3Bm03_new_user%3A-29895&amp;curPageLogUid=Souz7hgWNLUp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005002942389730%7C_p_origin_prod%3A</t>
+  </si>
+  <si>
+    <t> https://nl.aliexpress.com/w/wholesale-pre-crimped-cable-6-colors.html?spm=a2g0o.home.auto_suggest.4.60ca306bMkCXSW</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2168,13 +2177,20 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2493,10 +2509,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:XFD121"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,7 +2739,7 @@
       <c r="K9" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -5605,313 +5621,346 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="37"/>
+      <c r="B102" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="20" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="21" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C107" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="21"/>
-      <c r="C105" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="21"/>
-      <c r="C106" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="21"/>
-      <c r="C107" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B108" s="21"/>
       <c r="C108" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="21"/>
       <c r="C109" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="21"/>
       <c r="C110" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" s="21"/>
       <c r="C111" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="21"/>
       <c r="C112" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="21"/>
+      <c r="C113" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="21"/>
+      <c r="C114" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="21"/>
+      <c r="C115" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="21" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C116" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="22" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C117" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="23">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="23">
         <v>45731</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C118" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="33">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="33">
         <v>45769</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C121" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="33">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="33">
         <v>45825</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C122" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="33"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="33"/>
-    </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="33"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="33"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="C123" s="34" t="s">
+      <c r="C126" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="35"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="14"/>
-      <c r="C124" s="24" t="s">
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="36"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="14"/>
+      <c r="C127" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D127" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="15" t="s">
+      <c r="E127" s="24"/>
+      <c r="F127" s="15" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="C125" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="F125" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="C127" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="D127" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="16" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>165</v>
+        <v>555</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>554</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>556</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="16" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>165</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="16" t="s">
-        <v>589</v>
+        <v>547</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>165</v>
+        <v>556</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C136" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="D133" s="25" t="s">
+      <c r="D136" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F136" s="17" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="26" t="s">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C137" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="D134" s="27" t="s">
+      <c r="D137" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="E134" s="18"/>
-      <c r="F134" s="28" t="s">
+      <c r="E137" s="18"/>
+      <c r="F137" s="28" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="29" t="s">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="31"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C126:F126"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K81" r:id="rId1" xr:uid="{31854DCE-D22B-46B9-96F3-92D44A18FD02}"/>
+    <hyperlink ref="C103" r:id="rId2" display="https://nl.aliexpress.com/w/wholesale-pre-crimped-cable-6-colors.html?spm=a2g0o.home.auto_suggest.4.60ca306bMkCXSW" xr:uid="{D882093F-12C9-483A-AE98-F146B8867879}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>